--- a/ERPNext Master Records.xlsx
+++ b/ERPNext Master Records.xlsx
@@ -4,11 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Master Records" sheetId="1" r:id="rId1"/>
     <sheet name="Accouting" sheetId="2" r:id="rId2"/>
+    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Build" sheetId="4" r:id="rId4"/>
+    <sheet name="Buying" sheetId="5" r:id="rId5"/>
+    <sheet name="CRM" sheetId="6" r:id="rId6"/>
+    <sheet name="HR" sheetId="7" r:id="rId7"/>
+    <sheet name="Loans" sheetId="8" r:id="rId8"/>
+    <sheet name="Payroll" sheetId="9" r:id="rId9"/>
+    <sheet name="Projects" sheetId="10" r:id="rId10"/>
+    <sheet name="Quality" sheetId="11" r:id="rId11"/>
+    <sheet name="Selling" sheetId="12" r:id="rId12"/>
+    <sheet name="Stock" sheetId="13" r:id="rId13"/>
+    <sheet name="Support" sheetId="14" r:id="rId14"/>
+    <sheet name="Settings" sheetId="15" r:id="rId15"/>
+    <sheet name="Website" sheetId="16" r:id="rId16"/>
+    <sheet name="Utilities" sheetId="17" r:id="rId17"/>
+    <sheet name="Customization" sheetId="18" r:id="rId18"/>
+    <sheet name="Integrations" sheetId="19" r:id="rId19"/>
+    <sheet name="Tools" sheetId="20" r:id="rId20"/>
+    <sheet name="Users" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="592">
   <si>
     <t>MODULES</t>
   </si>
@@ -314,13 +333,1495 @@
   </si>
   <si>
     <t>video &amp; video Settings</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Lead Details</t>
+  </si>
+  <si>
+    <t>Sales Funnel</t>
+  </si>
+  <si>
+    <t>Prospects Engaged But Not Converted</t>
+  </si>
+  <si>
+    <t>First Response Time for Opportunity</t>
+  </si>
+  <si>
+    <t>Inactive Customers</t>
+  </si>
+  <si>
+    <t>Campaign Efficiency</t>
+  </si>
+  <si>
+    <t>Lead Owner Efficiency</t>
+  </si>
+  <si>
+    <t>Maintenance Schedule</t>
+  </si>
+  <si>
+    <t>Maintenance Visit</t>
+  </si>
+  <si>
+    <t>Warranty Claim</t>
+  </si>
+  <si>
+    <t>Email Campaign</t>
+  </si>
+  <si>
+    <t>Social Media Post</t>
+  </si>
+  <si>
+    <t>Customer Group</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Sales Person</t>
+  </si>
+  <si>
+    <t>SMS Center</t>
+  </si>
+  <si>
+    <t>SMS Log</t>
+  </si>
+  <si>
+    <t>SMS Settings</t>
+  </si>
+  <si>
+    <t>Email Group</t>
+  </si>
+  <si>
+    <t>Twitter Settings</t>
+  </si>
+  <si>
+    <t>LinkedIn Settings</t>
+  </si>
+  <si>
+    <t>Custom Documents</t>
+  </si>
+  <si>
+    <t>Lead Project</t>
+  </si>
+  <si>
+    <t>Check List</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>Sales Invoice</t>
+  </si>
+  <si>
+    <t>Blanket Order</t>
+  </si>
+  <si>
+    <t>Sales Partner</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Price</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>Item Group</t>
+  </si>
+  <si>
+    <t>Product Bundle</t>
+  </si>
+  <si>
+    <t>Promotional Scheme</t>
+  </si>
+  <si>
+    <t>Pricing Rule</t>
+  </si>
+  <si>
+    <t>Shipping Rule</t>
+  </si>
+  <si>
+    <t>Coupon Code</t>
+  </si>
+  <si>
+    <t>Selling Settings</t>
+  </si>
+  <si>
+    <t>Terms and Conditions Template</t>
+  </si>
+  <si>
+    <t>Sales Taxes and Charges Template</t>
+  </si>
+  <si>
+    <t>Lead Souce</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Sales Analytics</t>
+  </si>
+  <si>
+    <t>Sales Order Analysis</t>
+  </si>
+  <si>
+    <t>Sales Order Trends</t>
+  </si>
+  <si>
+    <t>Quotation Trends</t>
+  </si>
+  <si>
+    <t>Customer Acquisition and Loyalty</t>
+  </si>
+  <si>
+    <t>Sales Person-wise Transaction Summary</t>
+  </si>
+  <si>
+    <t>The Stock module is tightly integrated with Purchase, Manufacturing and Accounting modules.</t>
+  </si>
+  <si>
+    <t>Item Alternative</t>
+  </si>
+  <si>
+    <t>Item Manufacturer</t>
+  </si>
+  <si>
+    <t>Customs Tariff Number</t>
+  </si>
+  <si>
+    <t>Material Request</t>
+  </si>
+  <si>
+    <t>Stock Entry</t>
+  </si>
+  <si>
+    <t>Delivery Note</t>
+  </si>
+  <si>
+    <t>Purchase Receipt</t>
+  </si>
+  <si>
+    <t>Pick List</t>
+  </si>
+  <si>
+    <t>Delivery Trip</t>
+  </si>
+  <si>
+    <t>Srock Ledger</t>
+  </si>
+  <si>
+    <t>Stock Balance</t>
+  </si>
+  <si>
+    <t>Stock Projected Qty</t>
+  </si>
+  <si>
+    <t>material Request</t>
+  </si>
+  <si>
+    <t>Stock Summary</t>
+  </si>
+  <si>
+    <t>Item Price Stock</t>
+  </si>
+  <si>
+    <t>Stock  Ageing</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Stock Settings</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>unit of Measure (UOM)</t>
+  </si>
+  <si>
+    <t>Item Varient Settings</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Item Attribute</t>
+  </si>
+  <si>
+    <t>UOM Conversion Factor</t>
+  </si>
+  <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Installation Note</t>
+  </si>
+  <si>
+    <t>Serial No Service Contract Expiry</t>
+  </si>
+  <si>
+    <t>Serial No Status</t>
+  </si>
+  <si>
+    <t>Serial No Warranty Expiry</t>
+  </si>
+  <si>
+    <t>Item-Wise Price List Rate</t>
+  </si>
+  <si>
+    <t>Stock Analytics</t>
+  </si>
+  <si>
+    <t>Stock Qty vs Serial No Count</t>
+  </si>
+  <si>
+    <t>Delivery Note Trends</t>
+  </si>
+  <si>
+    <t>Purchase Receipt Trends</t>
+  </si>
+  <si>
+    <t>Purchase Order Analysis</t>
+  </si>
+  <si>
+    <t>Item shortage Report</t>
+  </si>
+  <si>
+    <t>Batch-Wise Balance History</t>
+  </si>
+  <si>
+    <t>Stock Reconciliation</t>
+  </si>
+  <si>
+    <t>Landed Cost Voucher</t>
+  </si>
+  <si>
+    <t>Packing Slip</t>
+  </si>
+  <si>
+    <t>Quality Inspection</t>
+  </si>
+  <si>
+    <t>Quality Inspection Template</t>
+  </si>
+  <si>
+    <t>Quality Stock Balance</t>
+  </si>
+  <si>
+    <t>Requested Items To Be Transferred</t>
+  </si>
+  <si>
+    <t>Batch Item Expiry Status</t>
+  </si>
+  <si>
+    <t>Item Prices</t>
+  </si>
+  <si>
+    <t>Itemwise Recommended Reorder Level</t>
+  </si>
+  <si>
+    <t>Item Varient Details</t>
+  </si>
+  <si>
+    <t>Subcontracted Raw Materials To Be Transferred</t>
+  </si>
+  <si>
+    <t>Subcontracted Item To Be Received</t>
+  </si>
+  <si>
+    <t>Stock and Account Value Comparision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Incorrect Data Report</t>
+  </si>
+  <si>
+    <t>Incorrect Serial No Qty and Valuation</t>
+  </si>
+  <si>
+    <t>Incorrect Balance Qty After Transaction</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Chart of Accounts</t>
+  </si>
+  <si>
+    <t>Account Settings</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Accounting Dimension</t>
+  </si>
+  <si>
+    <t>Finance Book</t>
+  </si>
+  <si>
+    <t>Accounting Period</t>
+  </si>
+  <si>
+    <t>Payment Term</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>Journal Entry Template</t>
+  </si>
+  <si>
+    <t>Customer Ledger Summary</t>
+  </si>
+  <si>
+    <t>Supplier Ledger Summary</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Invoice </t>
+  </si>
+  <si>
+    <t>Payment Entry</t>
+  </si>
+  <si>
+    <t>Payment Request</t>
+  </si>
+  <si>
+    <t>Accounts Receivable Summary</t>
+  </si>
+  <si>
+    <t>Sales Register</t>
+  </si>
+  <si>
+    <t>Item-wise Sales Register</t>
+  </si>
+  <si>
+    <t>Delivered Items To Be Billed</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Purchase Invoice</t>
+  </si>
+  <si>
+    <t>Accounts Payable Summary</t>
+  </si>
+  <si>
+    <t>Purchase Register</t>
+  </si>
+  <si>
+    <t>Item-wise Purchase Register</t>
+  </si>
+  <si>
+    <t>Received Items To Be Billed</t>
+  </si>
+  <si>
+    <t>Trial Balance for Party</t>
+  </si>
+  <si>
+    <t>Payment Period Based On Invoice Date</t>
+  </si>
+  <si>
+    <t>Sales Partners Commision</t>
+  </si>
+  <si>
+    <t>Customer Credit Balance</t>
+  </si>
+  <si>
+    <t>Sales Payment Summary</t>
+  </si>
+  <si>
+    <t>Address And Contacts</t>
+  </si>
+  <si>
+    <t>DATEV Export</t>
+  </si>
+  <si>
+    <t>UAE VAT 201</t>
+  </si>
+  <si>
+    <t>KSA VAT Report</t>
+  </si>
+  <si>
+    <t>Payment Gateway Account</t>
+  </si>
+  <si>
+    <t>Mode of Payment</t>
+  </si>
+  <si>
+    <t>Banking and Payments</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Bank Clearance</t>
+  </si>
+  <si>
+    <t>Bank Reconciliation Tool</t>
+  </si>
+  <si>
+    <t>Bank Reconciliation Statement</t>
+  </si>
+  <si>
+    <t>Payment Reconciliation</t>
+  </si>
+  <si>
+    <t>Subscription Management</t>
+  </si>
+  <si>
+    <t>Subscription Plan</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Subcription Settings</t>
+  </si>
+  <si>
+    <t>Goods and Services Tax (GST India)</t>
+  </si>
+  <si>
+    <t>GST Settings</t>
+  </si>
+  <si>
+    <t>GST HSN Code</t>
+  </si>
+  <si>
+    <t>GSTR-1</t>
+  </si>
+  <si>
+    <t>GSTR-2</t>
+  </si>
+  <si>
+    <t>GSTR 3B Report</t>
+  </si>
+  <si>
+    <t>GST Sales Register</t>
+  </si>
+  <si>
+    <t>GST Purchase Register</t>
+  </si>
+  <si>
+    <t>GST Itemised Sales Register</t>
+  </si>
+  <si>
+    <t>GST Itemised Purchase Register</t>
+  </si>
+  <si>
+    <t>C-Form</t>
+  </si>
+  <si>
+    <t>Lower Deduction Certificate</t>
+  </si>
+  <si>
+    <t>Share Management</t>
+  </si>
+  <si>
+    <t>Shareholder</t>
+  </si>
+  <si>
+    <t>Share Transfer</t>
+  </si>
+  <si>
+    <t>Share Ledger</t>
+  </si>
+  <si>
+    <t>Share Balance</t>
+  </si>
+  <si>
+    <t>Cost Center and Budgeting</t>
+  </si>
+  <si>
+    <t>Chart of Cost Centers</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Budget Variance Report</t>
+  </si>
+  <si>
+    <t>Monthly Distribution</t>
+  </si>
+  <si>
+    <t>Opening and Closing</t>
+  </si>
+  <si>
+    <t>Opening Invoice Creation Tool</t>
+  </si>
+  <si>
+    <t>Chart of Accounts Importer</t>
+  </si>
+  <si>
+    <t>Period Closing Voucher</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Purchase Taxes and Charges Template</t>
+  </si>
+  <si>
+    <t>Item Tax Template</t>
+  </si>
+  <si>
+    <t>Tax Category</t>
+  </si>
+  <si>
+    <t>Tax Rule</t>
+  </si>
+  <si>
+    <t>Tax Withholding Category</t>
+  </si>
+  <si>
+    <t>KSA VAT Setting</t>
+  </si>
+  <si>
+    <t>Profitability</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Profitability Analysis</t>
+  </si>
+  <si>
+    <t>Sales Invoice Trends</t>
+  </si>
+  <si>
+    <t>Purchase Invoice Trends</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Asset Category</t>
+  </si>
+  <si>
+    <t>Asset Movement</t>
+  </si>
+  <si>
+    <t>Asset Maintenance Team</t>
+  </si>
+  <si>
+    <t>Asset Maintenance</t>
+  </si>
+  <si>
+    <t>Asset Maintenance Log</t>
+  </si>
+  <si>
+    <t>Asset Value Adjustment</t>
+  </si>
+  <si>
+    <t>Asset Repair</t>
+  </si>
+  <si>
+    <t>Asset Depreciation Ledger</t>
+  </si>
+  <si>
+    <t>Asset Depreciations and Balances</t>
+  </si>
+  <si>
+    <t>Module Def</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>Module Onboarding</t>
+  </si>
+  <si>
+    <t>Block Module</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>DocType</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Print Format</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Server Script</t>
+  </si>
+  <si>
+    <t>Client Script</t>
+  </si>
+  <si>
+    <t>Scheduled Job Type</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Request for Quotation</t>
+  </si>
+  <si>
+    <t>Supplier Quotation</t>
+  </si>
+  <si>
+    <t>Buying Settings</t>
+  </si>
+  <si>
+    <t>Supplier Group</t>
+  </si>
+  <si>
+    <t>Supplier Scorecard Variable</t>
+  </si>
+  <si>
+    <t>Supplier Scorecard Critiria</t>
+  </si>
+  <si>
+    <t>Supplier Scorecard Standing</t>
+  </si>
+  <si>
+    <t>Purchase Analytics</t>
+  </si>
+  <si>
+    <t>Purchase Order Anaysis</t>
+  </si>
+  <si>
+    <t>Supplier-Wise Sales Analytics</t>
+  </si>
+  <si>
+    <t>Items to Order and Receive</t>
+  </si>
+  <si>
+    <t>Purchase Order Trends</t>
+  </si>
+  <si>
+    <t>Procurement Tracker</t>
+  </si>
+  <si>
+    <t>Items To Be Requested</t>
+  </si>
+  <si>
+    <t>Item-wise Purchase History</t>
+  </si>
+  <si>
+    <t>Supplier Quotation Comparision</t>
+  </si>
+  <si>
+    <t>Material Requests for which Supplier Quotations</t>
+  </si>
+  <si>
+    <t>Supplier Addresses And Contacts</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Import Supplier Invoice</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Employee Grade</t>
+  </si>
+  <si>
+    <t>Employee Group</t>
+  </si>
+  <si>
+    <t>Employee Health Insurance</t>
+  </si>
+  <si>
+    <t>Employee Onboarding</t>
+  </si>
+  <si>
+    <t>Employee Skill Map</t>
+  </si>
+  <si>
+    <t>Employee Promotion</t>
+  </si>
+  <si>
+    <t>Employee Transfer</t>
+  </si>
+  <si>
+    <t>Grievance Type</t>
+  </si>
+  <si>
+    <t>Employee Seperation</t>
+  </si>
+  <si>
+    <t>Employee Onboarding Template</t>
+  </si>
+  <si>
+    <t>Employee Seperation Template</t>
+  </si>
+  <si>
+    <t>Shift Type</t>
+  </si>
+  <si>
+    <t>Shift Request</t>
+  </si>
+  <si>
+    <t>Shift Assignment</t>
+  </si>
+  <si>
+    <t>Holiday List</t>
+  </si>
+  <si>
+    <t>Leave Type</t>
+  </si>
+  <si>
+    <t>Leave Period</t>
+  </si>
+  <si>
+    <t>Leave Policy</t>
+  </si>
+  <si>
+    <t>Leave Policy Assignment</t>
+  </si>
+  <si>
+    <t>Leave Application</t>
+  </si>
+  <si>
+    <t>Leave Allocation</t>
+  </si>
+  <si>
+    <t>Leave Encashment</t>
+  </si>
+  <si>
+    <t>Leave Block List</t>
+  </si>
+  <si>
+    <t>Compensatory Leave Request</t>
+  </si>
+  <si>
+    <t>HR Settings</t>
+  </si>
+  <si>
+    <t>Daily Work Summary Group</t>
+  </si>
+  <si>
+    <t>Team Updates</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Employee Attendance Tool</t>
+  </si>
+  <si>
+    <t>Attendance Request</t>
+  </si>
+  <si>
+    <t>Upload Attendance</t>
+  </si>
+  <si>
+    <t>Employee Checkin</t>
+  </si>
+  <si>
+    <t>Expense Claim</t>
+  </si>
+  <si>
+    <t>Employee Advance</t>
+  </si>
+  <si>
+    <t>Travel Request</t>
+  </si>
+  <si>
+    <t>Recruitement</t>
+  </si>
+  <si>
+    <t>Job Opening</t>
+  </si>
+  <si>
+    <t>Employee Referral</t>
+  </si>
+  <si>
+    <t>Job Applicant</t>
+  </si>
+  <si>
+    <t>Job Offer</t>
+  </si>
+  <si>
+    <t>Staffing Plan</t>
+  </si>
+  <si>
+    <t>Appointment Letter</t>
+  </si>
+  <si>
+    <t>Appointment Letter Template</t>
+  </si>
+  <si>
+    <t>Loan Application</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Training Program</t>
+  </si>
+  <si>
+    <t>Training Event</t>
+  </si>
+  <si>
+    <t>Training Result</t>
+  </si>
+  <si>
+    <t>Trainig Feedback</t>
+  </si>
+  <si>
+    <t>Appraisal</t>
+  </si>
+  <si>
+    <t>Appraisal Template</t>
+  </si>
+  <si>
+    <t>Energy Point Rule</t>
+  </si>
+  <si>
+    <t>Energy Point Log</t>
+  </si>
+  <si>
+    <t>Monthly Attendance Sheet</t>
+  </si>
+  <si>
+    <t>Recruitement Analytics</t>
+  </si>
+  <si>
+    <t>Employee analytics</t>
+  </si>
+  <si>
+    <t>Employee Leave Balance</t>
+  </si>
+  <si>
+    <t>Employee Leave Balance Summary</t>
+  </si>
+  <si>
+    <t>Employee Advance Summary</t>
+  </si>
+  <si>
+    <t>Employee Information</t>
+  </si>
+  <si>
+    <t>Employee Birthday</t>
+  </si>
+  <si>
+    <t>Employees Working on a Holiday</t>
+  </si>
+  <si>
+    <t>Daily Work Summary Replies</t>
+  </si>
+  <si>
+    <t>Process Loan security Shortfall</t>
+  </si>
+  <si>
+    <t>Process Loan Interest Accural</t>
+  </si>
+  <si>
+    <t>Loan Disbursement</t>
+  </si>
+  <si>
+    <t>Loan Repayment</t>
+  </si>
+  <si>
+    <t>Loan Write Off</t>
+  </si>
+  <si>
+    <t>Loan Interest Accural</t>
+  </si>
+  <si>
+    <t>Loan Security Type</t>
+  </si>
+  <si>
+    <t>Loan Security Price</t>
+  </si>
+  <si>
+    <t>Loan Security Pledge</t>
+  </si>
+  <si>
+    <t>Loan Security Unpledge</t>
+  </si>
+  <si>
+    <t>Loan Security Shortfall</t>
+  </si>
+  <si>
+    <t>Loan Repayment and Closure</t>
+  </si>
+  <si>
+    <t>Loan Security Status</t>
+  </si>
+  <si>
+    <t>Salary Component</t>
+  </si>
+  <si>
+    <t>Salary Structure</t>
+  </si>
+  <si>
+    <t>Salary Structure Assignment</t>
+  </si>
+  <si>
+    <t>Payroll Entry</t>
+  </si>
+  <si>
+    <t>Salary Slip</t>
+  </si>
+  <si>
+    <t>Payroll Period</t>
+  </si>
+  <si>
+    <t>Income Tax Slab</t>
+  </si>
+  <si>
+    <t>Employee Other Income</t>
+  </si>
+  <si>
+    <t>Employee Tax Exemption Declaration</t>
+  </si>
+  <si>
+    <t>Employee Tax Exemption Proof Submission</t>
+  </si>
+  <si>
+    <t>Employee Tax Exemption Category</t>
+  </si>
+  <si>
+    <t>Employee Tax Exemption Sub Category</t>
+  </si>
+  <si>
+    <t>Additional Salary</t>
+  </si>
+  <si>
+    <t>Retention Bonus</t>
+  </si>
+  <si>
+    <t>Employee Incentive</t>
+  </si>
+  <si>
+    <t>Employee Benefit Application</t>
+  </si>
+  <si>
+    <t>Employee Benefit Claim</t>
+  </si>
+  <si>
+    <t>Salary Register</t>
+  </si>
+  <si>
+    <t>Salary Payments Based On Payment Mode</t>
+  </si>
+  <si>
+    <t>Salary Payments Via ECS</t>
+  </si>
+  <si>
+    <t>Income Tax Deductions</t>
+  </si>
+  <si>
+    <t>Proffesional Tax Deductions</t>
+  </si>
+  <si>
+    <t>Provident Fund Deductions</t>
+  </si>
+  <si>
+    <t>Bank Remittance</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Project Template</t>
+  </si>
+  <si>
+    <t>Project Type</t>
+  </si>
+  <si>
+    <t>Project Update</t>
+  </si>
+  <si>
+    <t>Time Tracking</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Activity Type</t>
+  </si>
+  <si>
+    <t>Activity Cost</t>
+  </si>
+  <si>
+    <t>Daily Timesheet Summary</t>
+  </si>
+  <si>
+    <t>Employee Hours Utilization</t>
+  </si>
+  <si>
+    <t>Project Profitability</t>
+  </si>
+  <si>
+    <t>Project wise Stock Tracking</t>
+  </si>
+  <si>
+    <t>Project Billing Summary</t>
+  </si>
+  <si>
+    <t>Delayed Tasks Summary</t>
+  </si>
+  <si>
+    <t>Quality Goal</t>
+  </si>
+  <si>
+    <t>Quality Procedure</t>
+  </si>
+  <si>
+    <t>Tree of Procedures</t>
+  </si>
+  <si>
+    <t>Quality Feedback</t>
+  </si>
+  <si>
+    <t>Quality Feedback Template</t>
+  </si>
+  <si>
+    <t>Quality Meeting</t>
+  </si>
+  <si>
+    <t>Review and Action</t>
+  </si>
+  <si>
+    <t>Non Conformance</t>
+  </si>
+  <si>
+    <t>Quality Review</t>
+  </si>
+  <si>
+    <t>Quality Action</t>
+  </si>
+  <si>
+    <t>Item-wise Sales History</t>
+  </si>
+  <si>
+    <t>Customer Addresses And Contacts</t>
+  </si>
+  <si>
+    <t>Available Stock for Packing Items</t>
+  </si>
+  <si>
+    <t>Pending SO Items For Purchase Request</t>
+  </si>
+  <si>
+    <t>Customers withount any Sales Transactions</t>
+  </si>
+  <si>
+    <t>Territory Target Variance Based On Item Group</t>
+  </si>
+  <si>
+    <t>Sales Person Target Variance Based on Item Group</t>
+  </si>
+  <si>
+    <t>Sales Partner Target Variance Based on Item Group</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Issue Priority</t>
+  </si>
+  <si>
+    <t>Maintanance Visit</t>
+  </si>
+  <si>
+    <t>Support Settings</t>
+  </si>
+  <si>
+    <t>First Response Time for Issues</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Website Settings</t>
+  </si>
+  <si>
+    <t>Website Theme</t>
+  </si>
+  <si>
+    <t>Website Script</t>
+  </si>
+  <si>
+    <t>About Us Settings</t>
+  </si>
+  <si>
+    <t>Contact Us Settings</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blog Post</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>Blog Category</t>
+  </si>
+  <si>
+    <t>Web Site</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Web Form</t>
+  </si>
+  <si>
+    <t>Website Sidebar</t>
+  </si>
+  <si>
+    <t>Website Slideshow</t>
+  </si>
+  <si>
+    <t>Website Route Meta</t>
+  </si>
+  <si>
+    <t>Portal Settings</t>
+  </si>
+  <si>
+    <t>Help Category</t>
+  </si>
+  <si>
+    <t>Help Article</t>
+  </si>
+  <si>
+    <t>Import Data</t>
+  </si>
+  <si>
+    <t>Export Data</t>
+  </si>
+  <si>
+    <t>Bulk Update</t>
+  </si>
+  <si>
+    <t>Download Backups</t>
+  </si>
+  <si>
+    <t>Deleted Documents</t>
+  </si>
+  <si>
+    <t>Email / Notifications</t>
+  </si>
+  <si>
+    <t>Email Account</t>
+  </si>
+  <si>
+    <t>Email Domain</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Email Template</t>
+  </si>
+  <si>
+    <t>Auto Email Report</t>
+  </si>
+  <si>
+    <t>Notification Settings</t>
+  </si>
+  <si>
+    <t>System Settings</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>Error Snapshot</t>
+  </si>
+  <si>
+    <t>Domain Settings</t>
+  </si>
+  <si>
+    <t>Print Format Builder</t>
+  </si>
+  <si>
+    <t>Print Settings</t>
+  </si>
+  <si>
+    <t>Print Style</t>
+  </si>
+  <si>
+    <t>Workflow State</t>
+  </si>
+  <si>
+    <t>Workflow Action</t>
+  </si>
+  <si>
+    <t>Integrations Settings</t>
+  </si>
+  <si>
+    <t>Woocommerce Settings</t>
+  </si>
+  <si>
+    <t>Shopify Settings</t>
+  </si>
+  <si>
+    <t>Amazon MWS Settings</t>
+  </si>
+  <si>
+    <t>Plaid Settings</t>
+  </si>
+  <si>
+    <t>Exotel Settings</t>
+  </si>
+  <si>
+    <t>Video Settings</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Dashboard Chart</t>
+  </si>
+  <si>
+    <t>Dashboard Chart Source</t>
+  </si>
+  <si>
+    <t>Form Customization</t>
+  </si>
+  <si>
+    <t>Customize Form</t>
+  </si>
+  <si>
+    <t>Custom Field</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Custom Translations</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Dropbox Settings</t>
+  </si>
+  <si>
+    <t>S3 Backup Settings</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Google Services</t>
+  </si>
+  <si>
+    <t>Google Settings</t>
+  </si>
+  <si>
+    <t>Google Contacts</t>
+  </si>
+  <si>
+    <t>Google Calender</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Social Login Key</t>
+  </si>
+  <si>
+    <t>LDAP Settings</t>
+  </si>
+  <si>
+    <t>OAuth Client</t>
+  </si>
+  <si>
+    <t>OAuth Provider Settings</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Braintree Settings</t>
+  </si>
+  <si>
+    <t>Paypal Settings</t>
+  </si>
+  <si>
+    <t>Razorpay Settings</t>
+  </si>
+  <si>
+    <t>Stripe Settings</t>
+  </si>
+  <si>
+    <t>Paytm Settings</t>
+  </si>
+  <si>
+    <t>GoCardless Settings</t>
+  </si>
+  <si>
+    <t>M-Pesa Settings</t>
+  </si>
+  <si>
+    <t>Webhook</t>
+  </si>
+  <si>
+    <t>Slack Webhook URL</t>
+  </si>
+  <si>
+    <t>Twilio Settings</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Assignment Rule</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Auto Repeat</t>
+  </si>
+  <si>
+    <t>Event Streaming</t>
+  </si>
+  <si>
+    <t>Event Producer</t>
+  </si>
+  <si>
+    <t>Event Consumer</t>
+  </si>
+  <si>
+    <t>Event Update Log</t>
+  </si>
+  <si>
+    <t>Event Sync Log</t>
+  </si>
+  <si>
+    <t>Document Type Mapping</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Role Profile</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Activity Log</t>
+  </si>
+  <si>
+    <t>Access Log</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>Role Permissions Manager</t>
+  </si>
+  <si>
+    <t>User Permissions</t>
+  </si>
+  <si>
+    <t>Role Permission for Page and Report</t>
+  </si>
+  <si>
+    <t>Permitted Documents For User</t>
+  </si>
+  <si>
+    <t>Document Share Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,21 +1839,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF4C5A67"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,19 +1854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,31 +1872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +1896,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,23 +1964,23 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,11 +2263,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
@@ -780,456 +2285,455 @@
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+    <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1239,14 +2743,3661 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ERPNext Master Records.xlsx
+++ b/ERPNext Master Records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Master Records" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="593">
   <si>
     <t>MODULES</t>
   </si>
@@ -1815,6 +1815,9 @@
   </si>
   <si>
     <t>Document Share Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug If we create Sales Invoice after sales order - tax info is not showing up correctly, If we create sales Invoice from get items from sales order way, It works </t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1948,6 +1951,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1961,7 +1970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1981,6 +1990,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2263,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2931,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,77 +2952,81 @@
     <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -3901,9 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
